--- a/data/trans_orig/P68-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P68-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>46172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35907</v>
+        <v>35273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59080</v>
+        <v>58985</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2614931688174226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2033565193519995</v>
+        <v>0.1997670999038617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3345954029082358</v>
+        <v>0.3340579567849047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>19859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12482</v>
+        <v>13107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28204</v>
+        <v>29320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1407242596199414</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08845250571919336</v>
+        <v>0.09287891059372425</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1998618008306552</v>
+        <v>0.207766167302728</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -786,19 +786,19 @@
         <v>66031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53004</v>
+        <v>52348</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81108</v>
+        <v>82783</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2078474252924895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1668441754367064</v>
+        <v>0.1647773990120836</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2553079859925645</v>
+        <v>0.2605803261536982</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>130399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117491</v>
+        <v>117586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140664</v>
+        <v>141298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7385068311825774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6654045970917638</v>
+        <v>0.6659420432150951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7966434806480004</v>
+        <v>0.8002329000961377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -836,19 +836,19 @@
         <v>121259</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112914</v>
+        <v>111798</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128636</v>
+        <v>128011</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8592757403800586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8001381991693448</v>
+        <v>0.7922338326972719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9115474942808067</v>
+        <v>0.9071210894062757</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>247</v>
@@ -857,19 +857,19 @@
         <v>251657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>236580</v>
+        <v>234905</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264684</v>
+        <v>265340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7921525747075104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7446920140074353</v>
+        <v>0.7394196738463019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8331558245632934</v>
+        <v>0.8352226009879165</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>142291</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122159</v>
+        <v>118450</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>167042</v>
+        <v>162931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2557857063628533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2195954558553059</v>
+        <v>0.2129277735827119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3002782778316301</v>
+        <v>0.2928879822608009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -982,19 +982,19 @@
         <v>79275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63303</v>
+        <v>63544</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95253</v>
+        <v>96124</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2339348415667597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1868016921763498</v>
+        <v>0.1875138203682542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2810849920954366</v>
+        <v>0.2836556579089459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -1003,19 +1003,19 @@
         <v>221566</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195446</v>
+        <v>196670</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252447</v>
+        <v>247590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2475137972550744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2183351646643617</v>
+        <v>0.2197022342078013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2820108310541019</v>
+        <v>0.2765860489974875</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>413999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>389248</v>
+        <v>393359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>434131</v>
+        <v>437840</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7442142936371468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6997217221683701</v>
+        <v>0.7071120177391996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7804045441446942</v>
+        <v>0.7870722264172884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>245</v>
@@ -1053,19 +1053,19 @@
         <v>259601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>243623</v>
+        <v>242752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>275573</v>
+        <v>275332</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7660651584332403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7189150079045632</v>
+        <v>0.7163443420910541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8131983078236502</v>
+        <v>0.8124861796317461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>639</v>
@@ -1074,19 +1074,19 @@
         <v>673600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642719</v>
+        <v>647576</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>699720</v>
+        <v>698496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7524862027449256</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7179891689458979</v>
+        <v>0.7234139510025125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7816648353356376</v>
+        <v>0.7802977657921987</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>126029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108067</v>
+        <v>107073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146581</v>
+        <v>145896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.224974184948319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.192911468522501</v>
+        <v>0.1911372053836163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2616617873075527</v>
+        <v>0.2604399395085895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1199,19 +1199,19 @@
         <v>70042</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56466</v>
+        <v>55250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87367</v>
+        <v>85166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2299872448111655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1854097006130887</v>
+        <v>0.181415991167804</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2868741154435602</v>
+        <v>0.2796494844405557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -1220,19 +1220,19 @@
         <v>196070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>168992</v>
+        <v>171925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220977</v>
+        <v>222303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2267397048317128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1954262465220783</v>
+        <v>0.198818164535281</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.255542919219672</v>
+        <v>0.2570763007948154</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>434162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>413610</v>
+        <v>414295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452124</v>
+        <v>453118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.775025815051681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7383382126924474</v>
+        <v>0.7395600604914097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.807088531477499</v>
+        <v>0.8088627946163837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -1270,19 +1270,19 @@
         <v>234505</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217180</v>
+        <v>219381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248081</v>
+        <v>249297</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7700127551888345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7131258845564399</v>
+        <v>0.7203505155594446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.814590299386912</v>
+        <v>0.8185840088321962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1291,19 +1291,19 @@
         <v>668667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643760</v>
+        <v>642434</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>695745</v>
+        <v>692812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7732602951682872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7444570807803279</v>
+        <v>0.7429236992051845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8045737534779214</v>
+        <v>0.801181835464719</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>111110</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93853</v>
+        <v>94449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131018</v>
+        <v>131108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2570813208315195</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2171541680168327</v>
+        <v>0.218532134770901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3031442145480406</v>
+        <v>0.3033518574407905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1416,19 +1416,19 @@
         <v>37037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27529</v>
+        <v>27415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49117</v>
+        <v>48510</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2191311876219387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1628771103626084</v>
+        <v>0.1621984388949654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2906034022587965</v>
+        <v>0.2870097463800804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1437,19 +1437,19 @@
         <v>148147</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127578</v>
+        <v>124793</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169980</v>
+        <v>170409</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2464124672984198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2121992435173384</v>
+        <v>0.2075674203200349</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2827273722491916</v>
+        <v>0.2834403569362844</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>321087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>301179</v>
+        <v>301089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>338344</v>
+        <v>337748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7429186791684804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6968557854519594</v>
+        <v>0.6966481425592096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7828458319831669</v>
+        <v>0.7814678652290989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -1487,19 +1487,19 @@
         <v>131982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119902</v>
+        <v>120509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141490</v>
+        <v>141604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7808688123780613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7093965977412036</v>
+        <v>0.7129902536199195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8371228896373915</v>
+        <v>0.8378015611050346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>425</v>
@@ -1508,19 +1508,19 @@
         <v>453069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>431236</v>
+        <v>430807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>473638</v>
+        <v>476423</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7535875327015802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7172726277508084</v>
+        <v>0.7165596430637156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7878007564826616</v>
+        <v>0.7924325796799652</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>45882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35639</v>
+        <v>35408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56990</v>
+        <v>58467</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2812323461219089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2184476901435046</v>
+        <v>0.2170326546666821</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3493163800698336</v>
+        <v>0.3583656838184113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>13909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7957</v>
+        <v>7989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21964</v>
+        <v>20798</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2163639262644109</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.123773878387146</v>
+        <v>0.1242826342078775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3416648073619314</v>
+        <v>0.323525799441414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -1654,19 +1654,19 @@
         <v>59791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47963</v>
+        <v>47362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74150</v>
+        <v>73339</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2628972094332198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2108876957719258</v>
+        <v>0.2082465353000823</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.326031362117418</v>
+        <v>0.3224661494513241</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>117266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106158</v>
+        <v>104681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127509</v>
+        <v>127740</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7187676538780911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6506836199301662</v>
+        <v>0.6416343161815886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7815523098564954</v>
+        <v>0.7829673453333178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -1704,19 +1704,19 @@
         <v>50375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42320</v>
+        <v>43486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56327</v>
+        <v>56295</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7836360737355891</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6583351926380686</v>
+        <v>0.6764742005585864</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.876226121612854</v>
+        <v>0.8757173657921227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>167</v>
@@ -1725,19 +1725,19 @@
         <v>167641</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153282</v>
+        <v>154093</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179469</v>
+        <v>180070</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7371027905667803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.673968637882582</v>
+        <v>0.6775338505486761</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7891123042280744</v>
+        <v>0.7917534646999183</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>471484</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2496741540369401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>215</v>
@@ -1850,19 +1850,19 @@
         <v>220121</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2162626557167993</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>664</v>
@@ -1871,19 +1871,19 @@
         <v>691605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2379725512147826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>1416913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1380525</v>
+        <v>1376915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1454627</v>
+        <v>1454334</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7503258459630598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7310566846525353</v>
+        <v>0.72914498900043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.770297473585084</v>
+        <v>0.7701419577020702</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>759</v>
@@ -1921,19 +1921,19 @@
         <v>797722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>769088</v>
+        <v>769985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>822838</v>
+        <v>823138</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7837373442832007</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7556054206674362</v>
+        <v>0.7564874084602501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8084137285897424</v>
+        <v>0.8087086507293546</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2119</v>
@@ -1942,19 +1942,19 @@
         <v>2214635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2167453</v>
+        <v>2165510</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2255549</v>
+        <v>2258909</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7620274487852173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7457927174475063</v>
+        <v>0.7451242606234008</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7761055319312753</v>
+        <v>0.7772618072274119</v>
       </c>
     </row>
     <row r="21">
@@ -2287,19 +2287,19 @@
         <v>10327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5479</v>
+        <v>5147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18179</v>
+        <v>18071</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1261294209165745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06691941310169136</v>
+        <v>0.06287096539952935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2220399166491028</v>
+        <v>0.2207200538483603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2308,19 +2308,19 @@
         <v>10056</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4996</v>
+        <v>5030</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17120</v>
+        <v>17599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1145347049214502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05690227768466509</v>
+        <v>0.05728326310191789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1949887594533989</v>
+        <v>0.2004471661291252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2329,19 +2329,19 @@
         <v>20383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13110</v>
+        <v>13129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29556</v>
+        <v>30406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1201295719940163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07726645947793656</v>
+        <v>0.07737773411299523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1741929722207934</v>
+        <v>0.1792005755894961</v>
       </c>
     </row>
     <row r="5">
@@ -2358,19 +2358,19 @@
         <v>71547</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63695</v>
+        <v>63803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76395</v>
+        <v>76727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8738705790834256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7779600833508972</v>
+        <v>0.7792799461516395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9330805868983086</v>
+        <v>0.9371290346004706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -2379,19 +2379,19 @@
         <v>77745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70681</v>
+        <v>70202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82805</v>
+        <v>82771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8854652950785498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8050112405466008</v>
+        <v>0.7995528338708746</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9430977223153348</v>
+        <v>0.942716736898082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -2400,19 +2400,19 @@
         <v>149292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140119</v>
+        <v>139269</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156565</v>
+        <v>156546</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8798704280059837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8258070277792066</v>
+        <v>0.8207994244105044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.922733540522063</v>
+        <v>0.9226222658870049</v>
       </c>
     </row>
     <row r="6">
@@ -2504,19 +2504,19 @@
         <v>86288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71768</v>
+        <v>67960</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105143</v>
+        <v>103151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2249008425360589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1870555468391128</v>
+        <v>0.1771300619196996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2740442628301706</v>
+        <v>0.2688508855904244</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -2525,19 +2525,19 @@
         <v>67112</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51565</v>
+        <v>51992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82923</v>
+        <v>82685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2421135487384514</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1860277658790342</v>
+        <v>0.1875666407274457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2991540257902873</v>
+        <v>0.2982968063958588</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -2546,19 +2546,19 @@
         <v>153400</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132121</v>
+        <v>130022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177444</v>
+        <v>177767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2321205247281342</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1999215530683662</v>
+        <v>0.1967455440269016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2685026902281544</v>
+        <v>0.2689917505027255</v>
       </c>
     </row>
     <row r="8">
@@ -2575,19 +2575,19 @@
         <v>297384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>278529</v>
+        <v>280521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>311904</v>
+        <v>315712</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7750991574639411</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7259557371698293</v>
+        <v>0.7311491144095755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8129444531608871</v>
+        <v>0.8228699380803002</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>197</v>
@@ -2596,19 +2596,19 @@
         <v>210080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194269</v>
+        <v>194507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>225627</v>
+        <v>225200</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7578864512615486</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7008459742097127</v>
+        <v>0.701703193604141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8139722341209658</v>
+        <v>0.8124333592725541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>483</v>
@@ -2617,19 +2617,19 @@
         <v>507464</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>483420</v>
+        <v>483097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>528743</v>
+        <v>530842</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7678794752718658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7314973097718455</v>
+        <v>0.7310082494972745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8000784469316338</v>
+        <v>0.8032544559730984</v>
       </c>
     </row>
     <row r="9">
@@ -2721,19 +2721,19 @@
         <v>99714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84608</v>
+        <v>84480</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119097</v>
+        <v>120983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2339864027972947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1985402865855061</v>
+        <v>0.1982381112370047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2794710560112106</v>
+        <v>0.2838964324243743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2742,19 +2742,19 @@
         <v>72631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59207</v>
+        <v>58667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90451</v>
+        <v>89159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2550473625159763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2079069703498071</v>
+        <v>0.2060125160274022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3176214719071834</v>
+        <v>0.3130848070194349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -2763,19 +2763,19 @@
         <v>172345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147688</v>
+        <v>148014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195582</v>
+        <v>196136</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2424227802634355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2077402101821466</v>
+        <v>0.2081983022894928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2751077579900054</v>
+        <v>0.2758871247521215</v>
       </c>
     </row>
     <row r="11">
@@ -2792,19 +2792,19 @@
         <v>326438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307055</v>
+        <v>305169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341544</v>
+        <v>341672</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7660135972027053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7205289439887894</v>
+        <v>0.7161035675756254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.801459713414494</v>
+        <v>0.8017618887629951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -2813,19 +2813,19 @@
         <v>212145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194325</v>
+        <v>195617</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>225569</v>
+        <v>226109</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7449526374840237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6823785280928164</v>
+        <v>0.686915192980565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7920930296501929</v>
+        <v>0.7939874839725979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>517</v>
@@ -2834,19 +2834,19 @@
         <v>538583</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>515346</v>
+        <v>514792</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>563240</v>
+        <v>562914</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7575772197365644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7248922420099941</v>
+        <v>0.7241128752478785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7922597898178521</v>
+        <v>0.7918016977105072</v>
       </c>
     </row>
     <row r="12">
@@ -2938,19 +2938,19 @@
         <v>91196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73955</v>
+        <v>76443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107446</v>
+        <v>110853</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2487339147642396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2017110513133046</v>
+        <v>0.2084966580040913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.293056532987527</v>
+        <v>0.3023502093042307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -2959,19 +2959,19 @@
         <v>41446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31248</v>
+        <v>28597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55065</v>
+        <v>53883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1830517835585123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.138012056304388</v>
+        <v>0.1262999273620717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2431986684255515</v>
+        <v>0.2379787633882529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -2980,19 +2980,19 @@
         <v>132642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111335</v>
+        <v>112109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153299</v>
+        <v>154700</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2236577110240845</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1877302172635459</v>
+        <v>0.1890351347682749</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2584894469792777</v>
+        <v>0.2608513744342942</v>
       </c>
     </row>
     <row r="14">
@@ -3009,19 +3009,19 @@
         <v>275443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259193</v>
+        <v>255786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>292684</v>
+        <v>290196</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7512660852357604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7069434670124731</v>
+        <v>0.6976497906957694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7982889486866956</v>
+        <v>0.7915033419959087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -3030,19 +3030,19 @@
         <v>184972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171353</v>
+        <v>172535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195170</v>
+        <v>197821</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8169482164414877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7568013315744475</v>
+        <v>0.7620212366117469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8619879436956119</v>
+        <v>0.8737000726379281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>398</v>
@@ -3051,19 +3051,19 @@
         <v>460415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>439758</v>
+        <v>438357</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>481722</v>
+        <v>480948</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7763422889759155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7415105530207226</v>
+        <v>0.739148625565706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8122697827364541</v>
+        <v>0.8109648652317251</v>
       </c>
     </row>
     <row r="15">
@@ -3155,19 +3155,19 @@
         <v>43927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33814</v>
+        <v>33010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56289</v>
+        <v>55853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2791677672392285</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2148944632845396</v>
+        <v>0.2097852788059803</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3577259197813067</v>
+        <v>0.3549592194165182</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -3176,19 +3176,19 @@
         <v>24582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17000</v>
+        <v>15913</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33917</v>
+        <v>32766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3527300644440423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2439383029162766</v>
+        <v>0.2283310287000529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4866808608188705</v>
+        <v>0.4701616402042358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -3197,19 +3197,19 @@
         <v>68509</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55590</v>
+        <v>54869</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83823</v>
+        <v>83337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3017477774751581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2448476895544855</v>
+        <v>0.2416695666623831</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3691962393165681</v>
+        <v>0.3670567186521808</v>
       </c>
     </row>
     <row r="17">
@@ -3226,19 +3226,19 @@
         <v>113424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101062</v>
+        <v>101498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123537</v>
+        <v>124341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7208322327607716</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6422740802186933</v>
+        <v>0.6450407805834819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7851055367154605</v>
+        <v>0.7902147211940197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -3247,19 +3247,19 @@
         <v>45109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35774</v>
+        <v>36925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52691</v>
+        <v>53778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6472699355559577</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5133191391811304</v>
+        <v>0.5298383597957642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7560616970837248</v>
+        <v>0.7716689712999472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -3268,19 +3268,19 @@
         <v>158532</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143218</v>
+        <v>143704</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171451</v>
+        <v>172172</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6982522225248419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6308037606834318</v>
+        <v>0.6329432813478191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7551523104455145</v>
+        <v>0.7583304333376168</v>
       </c>
     </row>
     <row r="18">
@@ -3372,19 +3372,19 @@
         <v>331451</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2341275001163483</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -3393,19 +3393,19 @@
         <v>215828</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2281772746960676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>516</v>
@@ -3414,19 +3414,19 @@
         <v>547279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2317442569223014</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
     </row>
     <row r="20">
@@ -3443,19 +3443,19 @@
         <v>1084237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1048365</v>
+        <v>1051416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1114791</v>
+        <v>1115115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7658724998836517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7405339827233837</v>
+        <v>0.7426890737637634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7874554528487114</v>
+        <v>0.7876844992151201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>675</v>
@@ -3464,19 +3464,19 @@
         <v>730050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>702132</v>
+        <v>699108</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>755980</v>
+        <v>756569</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7718227253039325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7423075010192244</v>
+        <v>0.7391097567042312</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7992361852908421</v>
+        <v>0.7998589046378808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1686</v>
@@ -3485,19 +3485,19 @@
         <v>1814287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1768341</v>
+        <v>1769515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1856362</v>
+        <v>1857682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7682557430776986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7488002772084777</v>
+        <v>0.7492974796480113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7860725582190691</v>
+        <v>0.7866316066277087</v>
       </c>
     </row>
     <row r="21">
@@ -3830,19 +3830,19 @@
         <v>17151</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10241</v>
+        <v>10811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25590</v>
+        <v>26007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2198294200434791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.131257853407421</v>
+        <v>0.1385640584345156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3279841372993862</v>
+        <v>0.3333308893237698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3851,19 +3851,19 @@
         <v>11643</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6677</v>
+        <v>5785</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18439</v>
+        <v>18256</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1267547189040937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0726942137800685</v>
+        <v>0.06297616074609186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2007429587456602</v>
+        <v>0.1987434352901533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -3872,19 +3872,19 @@
         <v>28794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19069</v>
+        <v>20481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39005</v>
+        <v>39955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1695023640719489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.112250779064589</v>
+        <v>0.1205654411944111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2296071056476552</v>
+        <v>0.2352033629012579</v>
       </c>
     </row>
     <row r="5">
@@ -3901,19 +3901,19 @@
         <v>60870</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52431</v>
+        <v>52014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67780</v>
+        <v>67210</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7801705799565208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6720158627006139</v>
+        <v>0.66666911067623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.868742146592579</v>
+        <v>0.8614359415654844</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -3922,19 +3922,19 @@
         <v>80212</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73416</v>
+        <v>73599</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85178</v>
+        <v>86070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8732452810959063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7992570412543402</v>
+        <v>0.8012565647098467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9273057862199315</v>
+        <v>0.9370238392539082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -3943,19 +3943,19 @@
         <v>141082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>130871</v>
+        <v>129921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150807</v>
+        <v>149395</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8304976359280511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7703928943523449</v>
+        <v>0.7647966370987421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8877492209354112</v>
+        <v>0.8794345588055891</v>
       </c>
     </row>
     <row r="6">
@@ -4047,19 +4047,19 @@
         <v>81572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66976</v>
+        <v>67259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98778</v>
+        <v>99445</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.238405632001344</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1957479096014648</v>
+        <v>0.19657367976862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2886917615543227</v>
+        <v>0.2906428092194469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -4068,19 +4068,19 @@
         <v>46290</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35627</v>
+        <v>35318</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59645</v>
+        <v>59654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1691187088815934</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.130159681737828</v>
+        <v>0.1290327691704572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2179075591822484</v>
+        <v>0.217940807218226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>124</v>
@@ -4089,19 +4089,19 @@
         <v>127863</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109466</v>
+        <v>109191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147939</v>
+        <v>149368</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2076119997601865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1777412539087236</v>
+        <v>0.1772952575217825</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2402103089215973</v>
+        <v>0.2425297191215632</v>
       </c>
     </row>
     <row r="8">
@@ -4118,19 +4118,19 @@
         <v>260584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243378</v>
+        <v>242711</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275180</v>
+        <v>274897</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.761594367998656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7113082384456773</v>
+        <v>0.7093571907805531</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8042520903985352</v>
+        <v>0.8034263202313801</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>235</v>
@@ -4139,19 +4139,19 @@
         <v>227426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>214071</v>
+        <v>214062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>238089</v>
+        <v>238398</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8308812911184066</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7820924408177514</v>
+        <v>0.7820591927817737</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8698403182621718</v>
+        <v>0.8709672308295426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>486</v>
@@ -4160,19 +4160,19 @@
         <v>488010</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>467934</v>
+        <v>466505</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>506407</v>
+        <v>506682</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7923880002398135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.759789691078403</v>
+        <v>0.7574702808784368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8222587460912767</v>
+        <v>0.8227047424782176</v>
       </c>
     </row>
     <row r="9">
@@ -4264,19 +4264,19 @@
         <v>113123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93928</v>
+        <v>95280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131762</v>
+        <v>132598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2475594339218996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2055529429826188</v>
+        <v>0.2085116372630103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2883494214300949</v>
+        <v>0.2901796492738966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -4285,19 +4285,19 @@
         <v>71458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58101</v>
+        <v>57261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86848</v>
+        <v>87083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2264677084097549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1841363456372916</v>
+        <v>0.1814751679064859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2752443837681481</v>
+        <v>0.2759884426366843</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>177</v>
@@ -4306,19 +4306,19 @@
         <v>184581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159913</v>
+        <v>161773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209534</v>
+        <v>206527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2389442118983538</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2070110838578796</v>
+        <v>0.2094189372720889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2712465854426193</v>
+        <v>0.2673549490466536</v>
       </c>
     </row>
     <row r="11">
@@ -4335,19 +4335,19 @@
         <v>343829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>325190</v>
+        <v>324354</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>363024</v>
+        <v>361672</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7524405660781004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7116505785699052</v>
+        <v>0.7098203507261035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7944470570173813</v>
+        <v>0.7914883627369899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -4356,19 +4356,19 @@
         <v>244074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228684</v>
+        <v>228449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257431</v>
+        <v>258271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7735322915902451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.724755616231852</v>
+        <v>0.7240115573633161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8158636543627086</v>
+        <v>0.8185248320935142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>575</v>
@@ -4377,19 +4377,19 @@
         <v>587903</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>562950</v>
+        <v>565957</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>612571</v>
+        <v>610711</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7610557881016462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7287534145573809</v>
+        <v>0.7326450509533463</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7929889161421206</v>
+        <v>0.7905810627279111</v>
       </c>
     </row>
     <row r="12">
@@ -4481,19 +4481,19 @@
         <v>91428</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74773</v>
+        <v>73469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110942</v>
+        <v>107912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2514469468031768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2056427359387789</v>
+        <v>0.2020544739619006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3051135302626235</v>
+        <v>0.2967813335286367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -4502,19 +4502,19 @@
         <v>56107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43635</v>
+        <v>43547</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69220</v>
+        <v>71720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2317326525935759</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.180221341482659</v>
+        <v>0.1798572747558807</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2858897153590795</v>
+        <v>0.2962138860920572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -4523,19 +4523,19 @@
         <v>147535</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126431</v>
+        <v>127134</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169360</v>
+        <v>168532</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2435667784905606</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2087246489844109</v>
+        <v>0.2098866632268706</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2795965633510162</v>
+        <v>0.278230249143591</v>
       </c>
     </row>
     <row r="14">
@@ -4552,19 +4552,19 @@
         <v>272180</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252666</v>
+        <v>255696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288835</v>
+        <v>290139</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7485530531968232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6948864697373764</v>
+        <v>0.703218666471363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7943572640612212</v>
+        <v>0.7979455260380992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -4573,19 +4573,19 @@
         <v>186014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172901</v>
+        <v>170401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>198486</v>
+        <v>198574</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7682673474064241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7141102846409205</v>
+        <v>0.7037861139079428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.819778658517341</v>
+        <v>0.8201427252441192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>417</v>
@@ -4594,19 +4594,19 @@
         <v>458194</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>436369</v>
+        <v>437197</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>479298</v>
+        <v>478595</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7564332215094394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7204034366489838</v>
+        <v>0.7217697508564089</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7912753510155891</v>
+        <v>0.7901133367731294</v>
       </c>
     </row>
     <row r="15">
@@ -4698,19 +4698,19 @@
         <v>44848</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34224</v>
+        <v>32932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59319</v>
+        <v>56652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2741050911754727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2091709528152871</v>
+        <v>0.2012797465710449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.362553111688365</v>
+        <v>0.3462525375193277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -4719,19 +4719,19 @@
         <v>30799</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22042</v>
+        <v>20954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43031</v>
+        <v>41929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2971729351044438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2126830078397986</v>
+        <v>0.2021812684271747</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4151996858647433</v>
+        <v>0.4045605849083416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -4740,19 +4740,19 @@
         <v>75646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59205</v>
+        <v>59500</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90695</v>
+        <v>91306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2830506625455297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.221530735873881</v>
+        <v>0.2226343459858269</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3393571390131973</v>
+        <v>0.3416468275359567</v>
       </c>
     </row>
     <row r="17">
@@ -4769,19 +4769,19 @@
         <v>118767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104296</v>
+        <v>106963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129391</v>
+        <v>130683</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7258949088245272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.637446888311635</v>
+        <v>0.6537474624806723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7908290471847128</v>
+        <v>0.7987202534289551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -4790,19 +4790,19 @@
         <v>72841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60609</v>
+        <v>61711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81598</v>
+        <v>82686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7028270648955562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5848003141352568</v>
+        <v>0.5954394150916583</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7873169921602013</v>
+        <v>0.7978187315728252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>166</v>
@@ -4811,19 +4811,19 @@
         <v>191608</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>176559</v>
+        <v>175948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>208049</v>
+        <v>207754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7169493374544703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6606428609868027</v>
+        <v>0.658353172464044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7784692641261189</v>
+        <v>0.7773656540141732</v>
       </c>
     </row>
     <row r="18">
@@ -4915,19 +4915,19 @@
         <v>348122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2478878577598876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -4936,19 +4936,19 @@
         <v>216298</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2106390575256048</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>527</v>
@@ -4957,19 +4957,19 @@
         <v>564419</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>520986</v>
+        <v>524312</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>608349</v>
+        <v>608186</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2321552132927825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2142902127087856</v>
+        <v>0.2156582493256609</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2502240950755107</v>
+        <v>0.2501572597420076</v>
       </c>
     </row>
     <row r="20">
@@ -4986,19 +4986,19 @@
         <v>1056230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1023679</v>
+        <v>1022492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1088743</v>
+        <v>1087477</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7521121422401124</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7289335128451373</v>
+        <v>0.7280882552678638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7752633487059954</v>
+        <v>0.7743620346360968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>796</v>
@@ -5007,19 +5007,19 @@
         <v>810566</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>786781</v>
+        <v>780328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>838656</v>
+        <v>833247</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7893609424743951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7661979839106303</v>
+        <v>0.7599140837663272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8167158037426971</v>
+        <v>0.811448529883037</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1782</v>
@@ -5028,19 +5028,19 @@
         <v>1866797</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1822867</v>
+        <v>1823030</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1910230</v>
+        <v>1906904</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7678447867072175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7497759049244893</v>
+        <v>0.7498427402579927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7857097872912145</v>
+        <v>0.7843417506743391</v>
       </c>
     </row>
     <row r="21">
@@ -5373,19 +5373,19 @@
         <v>9218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2663</v>
+        <v>2467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21937</v>
+        <v>21027</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09330863122306535</v>
+        <v>0.09330863122306536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02696091506314792</v>
+        <v>0.02497486734684861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2220550427937887</v>
+        <v>0.2128401629266795</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5394,19 +5394,19 @@
         <v>15899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7454</v>
+        <v>8252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26143</v>
+        <v>26898</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1768475610060113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08291410346055673</v>
+        <v>0.09178866668967661</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2907971995934409</v>
+        <v>0.2991968188173193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5415,19 +5415,19 @@
         <v>25117</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15009</v>
+        <v>14978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41596</v>
+        <v>41475</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1331099220818336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0795438704879593</v>
+        <v>0.07937697466721831</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2204433863896546</v>
+        <v>0.219802057168573</v>
       </c>
     </row>
     <row r="5">
@@ -5444,19 +5444,19 @@
         <v>89573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76854</v>
+        <v>77764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96128</v>
+        <v>96324</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9066913687769346</v>
+        <v>0.9066913687769347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7779449572062113</v>
+        <v>0.7871598370733215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9730390849368521</v>
+        <v>0.975025132653152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -5465,19 +5465,19 @@
         <v>74001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63757</v>
+        <v>63002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82446</v>
+        <v>81648</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8231524389939888</v>
+        <v>0.8231524389939886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7092028004065586</v>
+        <v>0.7008031811826794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9170858965394432</v>
+        <v>0.9082113333103233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -5486,19 +5486,19 @@
         <v>163574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147095</v>
+        <v>147216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173682</v>
+        <v>173713</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8668900779181664</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7795566136103455</v>
+        <v>0.7801979428314272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9204561295120407</v>
+        <v>0.9206230253327817</v>
       </c>
     </row>
     <row r="6">
@@ -5590,19 +5590,19 @@
         <v>69593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50086</v>
+        <v>51638</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90431</v>
+        <v>91983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1785840290158608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1285268909099387</v>
+        <v>0.1325107411252912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2320582547809801</v>
+        <v>0.2360412056665397</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -5611,19 +5611,19 @@
         <v>51512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38035</v>
+        <v>39477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65049</v>
+        <v>68732</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1648936508295062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1217513728458744</v>
+        <v>0.1263675091836746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2082266501360583</v>
+        <v>0.2200143884187733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -5632,19 +5632,19 @@
         <v>121105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100239</v>
+        <v>99636</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149370</v>
+        <v>149953</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1724924504052233</v>
+        <v>0.1724924504052234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1427735379014187</v>
+        <v>0.1419144793092564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2127515703895221</v>
+        <v>0.2135816146823638</v>
       </c>
     </row>
     <row r="8">
@@ -5661,19 +5661,19 @@
         <v>320098</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>299260</v>
+        <v>297708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339605</v>
+        <v>338053</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8214159709841391</v>
+        <v>0.8214159709841393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7679417452190201</v>
+        <v>0.7639587943334605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8714731090900616</v>
+        <v>0.8674892588747087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>246</v>
@@ -5682,19 +5682,19 @@
         <v>260884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>247347</v>
+        <v>243664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>274361</v>
+        <v>272919</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8351063491704939</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7917733498639417</v>
+        <v>0.7799856115812266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8782486271541253</v>
+        <v>0.8736324908163252</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>451</v>
@@ -5703,19 +5703,19 @@
         <v>580981</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>552716</v>
+        <v>552133</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>601847</v>
+        <v>602450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8275075495947766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7872484296104778</v>
+        <v>0.7864183853176362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.857226462098581</v>
+        <v>0.8580855206907437</v>
       </c>
     </row>
     <row r="9">
@@ -5807,19 +5807,19 @@
         <v>109977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90668</v>
+        <v>91845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130494</v>
+        <v>131320</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2062301772574238</v>
+        <v>0.2062301772574239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1700219060383462</v>
+        <v>0.1722279217081948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2447038980210834</v>
+        <v>0.246252496751513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -5828,19 +5828,19 @@
         <v>86641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73184</v>
+        <v>74079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101714</v>
+        <v>101779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2205634660496977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1863055411738626</v>
+        <v>0.1885833246220301</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2589342901732903</v>
+        <v>0.2590999772165323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -5849,19 +5849,19 @@
         <v>196618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>173715</v>
+        <v>174056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220301</v>
+        <v>223145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2123098676974168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1875786039008255</v>
+        <v>0.1879465559971073</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2378829492056975</v>
+        <v>0.2409534989880119</v>
       </c>
     </row>
     <row r="11">
@@ -5878,19 +5878,19 @@
         <v>423298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>402781</v>
+        <v>401955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>442607</v>
+        <v>441430</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.793769822742576</v>
+        <v>0.7937698227425762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7552961019789165</v>
+        <v>0.7537475032484869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8299780939616532</v>
+        <v>0.8277720782918051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -5899,19 +5899,19 @@
         <v>306175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291102</v>
+        <v>291037</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319632</v>
+        <v>318737</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7794365339503022</v>
+        <v>0.7794365339503023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7410657098267085</v>
+        <v>0.7409000227834679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8136944588261373</v>
+        <v>0.8114166753779698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>796</v>
@@ -5920,19 +5920,19 @@
         <v>729474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>705791</v>
+        <v>702947</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>752377</v>
+        <v>752036</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7876901323025831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7621170507943025</v>
+        <v>0.7590465010119882</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8124213960991745</v>
+        <v>0.8120534440028928</v>
       </c>
     </row>
     <row r="12">
@@ -6024,19 +6024,19 @@
         <v>120530</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101393</v>
+        <v>98246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142210</v>
+        <v>138704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2232962658059678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1878429812331847</v>
+        <v>0.1820133417234537</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.263460820184284</v>
+        <v>0.256965957461427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -6045,19 +6045,19 @@
         <v>126515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113021</v>
+        <v>110695</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142097</v>
+        <v>142520</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2820579469002048</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2519722182871511</v>
+        <v>0.2467873158839897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3167971144349824</v>
+        <v>0.3177399114042662</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>304</v>
@@ -6066,19 +6066,19 @@
         <v>247045</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221721</v>
+        <v>221566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>271978</v>
+        <v>272324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2499649333823097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2243416676071041</v>
+        <v>0.2241839990665617</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2751921076002898</v>
+        <v>0.2755425670936283</v>
       </c>
     </row>
     <row r="14">
@@ -6095,19 +6095,19 @@
         <v>419246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>397566</v>
+        <v>401072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>438383</v>
+        <v>441530</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7767037341940323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.736539179815716</v>
+        <v>0.7430340425385729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8121570187668155</v>
+        <v>0.8179866582765464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>510</v>
@@ -6116,19 +6116,19 @@
         <v>322029</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306447</v>
+        <v>306024</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335523</v>
+        <v>337849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7179420530997953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6832028855650174</v>
+        <v>0.6822600885957337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7480277817128488</v>
+        <v>0.7532126841160096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>914</v>
@@ -6137,19 +6137,19 @@
         <v>741275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>716342</v>
+        <v>715996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>766599</v>
+        <v>766754</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7500350666176903</v>
+        <v>0.7500350666176901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7248078923997103</v>
+        <v>0.7244574329063717</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7756583323928965</v>
+        <v>0.7758160009334384</v>
       </c>
     </row>
     <row r="15">
@@ -6241,19 +6241,19 @@
         <v>72023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57742</v>
+        <v>58195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86418</v>
+        <v>85755</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2221903367009901</v>
+        <v>0.22219033670099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1781335756646935</v>
+        <v>0.1795311998596295</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.266598112191573</v>
+        <v>0.2645517569164292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -6262,19 +6262,19 @@
         <v>61768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52215</v>
+        <v>51704</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73747</v>
+        <v>72190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2674209018922589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2260627676079911</v>
+        <v>0.2238501297145048</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.319286012831374</v>
+        <v>0.3125424269818776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>179</v>
@@ -6283,19 +6283,19 @@
         <v>133791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116475</v>
+        <v>115323</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152140</v>
+        <v>152523</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2410097410308031</v>
+        <v>0.2410097410308032</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2098166867021499</v>
+        <v>0.2077410286353259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2740628271124697</v>
+        <v>0.2747524643030092</v>
       </c>
     </row>
     <row r="17">
@@ -6312,19 +6312,19 @@
         <v>252129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237734</v>
+        <v>238397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>266410</v>
+        <v>265957</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7778096632990099</v>
+        <v>0.7778096632990098</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7334018878084272</v>
+        <v>0.7354482430835713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8218664243353065</v>
+        <v>0.8204688001403706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>283</v>
@@ -6333,19 +6333,19 @@
         <v>169208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157229</v>
+        <v>158786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178761</v>
+        <v>179272</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7325790981077411</v>
+        <v>0.732579098107741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.680713987168626</v>
+        <v>0.6874575730181224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7739372323920088</v>
+        <v>0.7761498702854952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>558</v>
@@ -6354,19 +6354,19 @@
         <v>421337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>402988</v>
+        <v>402605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>438653</v>
+        <v>439805</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7589902589691967</v>
+        <v>0.7589902589691969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7259371728875298</v>
+        <v>0.7252475356969907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7901833132978501</v>
+        <v>0.792258971364674</v>
       </c>
     </row>
     <row r="18">
@@ -6458,19 +6458,19 @@
         <v>381341</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>340979</v>
+        <v>343351</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>417833</v>
+        <v>416617</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2022296747021927</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1808250150466162</v>
+        <v>0.1820829065135046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2215816824503264</v>
+        <v>0.2209367630225918</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>468</v>
@@ -6479,19 +6479,19 @@
         <v>342335</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>310991</v>
+        <v>312328</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>370459</v>
+        <v>370169</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2321493092564317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2108939069838283</v>
+        <v>0.2118009173695616</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.25122116085745</v>
+        <v>0.2510245173414424</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>801</v>
@@ -6500,19 +6500,19 @@
         <v>723676</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>679652</v>
+        <v>673755</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>772347</v>
+        <v>771416</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2153595191893946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.202258302193462</v>
+        <v>0.2005034921627875</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2298435735211385</v>
+        <v>0.2295663546316475</v>
       </c>
     </row>
     <row r="20">
@@ -6529,19 +6529,19 @@
         <v>1504344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1467852</v>
+        <v>1469068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1544706</v>
+        <v>1542334</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7977703252978072</v>
+        <v>0.7977703252978073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7784183175496736</v>
+        <v>0.7790632369774083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8191749849533839</v>
+        <v>0.8179170934864953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1508</v>
@@ -6550,19 +6550,19 @@
         <v>1132297</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1104173</v>
+        <v>1104463</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1163641</v>
+        <v>1162304</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7678506907435685</v>
+        <v>0.7678506907435682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7487788391425497</v>
+        <v>0.7489754826585577</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7891060930161716</v>
+        <v>0.7881990826304385</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2805</v>
@@ -6571,19 +6571,19 @@
         <v>2636641</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2587970</v>
+        <v>2588901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2680665</v>
+        <v>2686562</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7846404808106056</v>
+        <v>0.7846404808106053</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7701564264788616</v>
+        <v>0.7704336453683525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7977416978065381</v>
+        <v>0.7994965078372124</v>
       </c>
     </row>
     <row r="21">
